--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 23,01</t>
+          <t>2,5; 23,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 14,75</t>
+          <t>-4,66; 15,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 1,34</t>
+          <t>-15,61; 1,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 31,0</t>
+          <t>6,01; 29,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 18,42</t>
+          <t>-3,82; 18,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,49; -3,39</t>
+          <t>-21,32; -4,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 24,2</t>
+          <t>7,22; 23,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 14,48</t>
+          <t>-1,48; 14,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -2,98</t>
+          <t>-15,03; -2,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 271,7</t>
+          <t>11,27; 287,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 154,92</t>
+          <t>-27,2; 162,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,16; 22,82</t>
+          <t>-79,49; 20,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 158,77</t>
+          <t>20,29; 150,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 95,11</t>
+          <t>-13,69; 90,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,74; -16,4</t>
+          <t>-70,31; -21,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 153,23</t>
+          <t>30,79; 149,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 97,56</t>
+          <t>-6,16; 91,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,99; -19,05</t>
+          <t>-65,38; -16,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 13,05</t>
+          <t>2,64; 13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 11,02</t>
+          <t>1,04; 11,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -1,95</t>
+          <t>-10,79; -1,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 15,44</t>
+          <t>3,28; 15,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,8</t>
+          <t>-9,23; 1,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,47; -10,87</t>
+          <t>-21,41; -11,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,54</t>
+          <t>4,9; 12,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,73</t>
+          <t>-2,78; 4,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -7,51</t>
+          <t>-14,86; -7,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 66,53</t>
+          <t>10,98; 68,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 58,41</t>
+          <t>4,01; 60,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,51; -10,25</t>
+          <t>-45,85; -6,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 50,05</t>
+          <t>8,94; 50,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 6,28</t>
+          <t>-25,35; 6,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,05; -36,35</t>
+          <t>-57,59; -34,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 48,7</t>
+          <t>16,65; 48,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 18,24</t>
+          <t>-9,43; 18,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,94; -29,2</t>
+          <t>-49,92; -30,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,55</t>
+          <t>4,57; 12,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 7,11</t>
+          <t>-0,84; 6,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -2,36</t>
+          <t>-10,23; -2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 16,89</t>
+          <t>8,1; 16,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,12</t>
+          <t>0,42; 8,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -5,07</t>
+          <t>-12,16; -4,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,78</t>
+          <t>7,59; 13,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,8</t>
+          <t>0,83; 6,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -4,61</t>
+          <t>-10,09; -4,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,01; 63,42</t>
+          <t>18,86; 62,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 35,92</t>
+          <t>-3,84; 33,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,06; -12,18</t>
+          <t>-44,52; -10,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,7; 56,43</t>
+          <t>23,58; 56,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 30,12</t>
+          <t>0,96; 29,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -16,56</t>
+          <t>-35,43; -15,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,05; 54,27</t>
+          <t>27,0; 53,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 26,66</t>
+          <t>3,04; 26,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,03; -18,53</t>
+          <t>-35,72; -17,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 14,67</t>
+          <t>5,22; 14,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,88</t>
+          <t>0,09; 9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -3,11</t>
+          <t>-11,11; -2,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 21,47</t>
+          <t>11,1; 21,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 10,6</t>
+          <t>1,11; 10,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 23,82</t>
+          <t>-13,8; 23,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,28</t>
+          <t>9,41; 16,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,24</t>
+          <t>1,54; 8,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 14,15</t>
+          <t>-10,78; 13,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,03; 85,28</t>
+          <t>23,73; 82,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 50,24</t>
+          <t>0,22; 53,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -16,6</t>
+          <t>-50,75; -12,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,21; 80,68</t>
+          <t>34,92; 79,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 39,51</t>
+          <t>3,17; 41,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 84,94</t>
+          <t>-45,88; 89,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,14; 71,65</t>
+          <t>36,28; 71,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,0; 35,92</t>
+          <t>5,6; 36,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 58,1</t>
+          <t>-42,38; 56,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,97</t>
+          <t>5,1; 12,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,08</t>
+          <t>-1,3; 5,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -3,5</t>
+          <t>-10,67; -3,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,2</t>
+          <t>6,83; 15,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 6,02</t>
+          <t>-2,15; 6,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,13; -10,34</t>
+          <t>-17,16; -10,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,09</t>
+          <t>7,27; 13,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,14</t>
+          <t>-0,56; 5,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -8,2</t>
+          <t>-12,88; -8,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,19; 76,02</t>
+          <t>24,49; 75,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 35,35</t>
+          <t>-6,34; 34,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,19; -20,94</t>
+          <t>-51,45; -21,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,23; 58,71</t>
+          <t>23,05; 58,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 23,14</t>
+          <t>-7,18; 23,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -40,3</t>
+          <t>-57,87; -40,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,7; 58,28</t>
+          <t>29,11; 59,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 23,36</t>
+          <t>-2,3; 23,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,92; -37,09</t>
+          <t>-51,59; -36,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,19</t>
+          <t>6,8; 11,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,64</t>
+          <t>1,83; 5,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -4,95</t>
+          <t>-8,61; -4,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,07</t>
+          <t>10,17; 14,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,02</t>
+          <t>0,42; 5,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,13</t>
+          <t>-13,28; -0,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,4</t>
+          <t>9,41; 12,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,63</t>
+          <t>1,81; 4,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -3,97</t>
+          <t>-10,15; -3,5</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>32,62; 58,61</t>
+          <t>32,74; 57,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,15; 29,29</t>
+          <t>8,48; 30,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,16; -25,88</t>
+          <t>-41,29; -24,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,7; 51,53</t>
+          <t>32,19; 50,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,65; 17,26</t>
+          <t>1,35; 17,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -7,24</t>
+          <t>-42,93; -1,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,57; 50,48</t>
+          <t>36,0; 51,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,66</t>
+          <t>6,75; 19,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -14,72</t>
+          <t>-39,33; -12,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 23,64</t>
+          <t>2,84; 23,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 15,12</t>
+          <t>-4,45; 15,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 1,02</t>
+          <t>-15,65; 0,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 29,84</t>
+          <t>5,63; 30,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 18,44</t>
+          <t>-3,48; 19,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -4,13</t>
+          <t>-21,12; -3,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 23,59</t>
+          <t>8,66; 24,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 14,45</t>
+          <t>-0,95; 13,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -2,49</t>
+          <t>-15,57; -2,49</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 287,03</t>
+          <t>10,75; 248,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 162,52</t>
+          <t>-26,28; 174,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,49; 20,3</t>
+          <t>-78,29; 14,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,29; 150,42</t>
+          <t>18,21; 150,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 90,08</t>
+          <t>-12,62; 99,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,31; -21,08</t>
+          <t>-67,84; -19,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,79; 149,63</t>
+          <t>37,9; 157,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 91,32</t>
+          <t>-3,97; 86,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,38; -16,3</t>
+          <t>-65,75; -15,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 13,05</t>
+          <t>2,56; 12,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,46</t>
+          <t>0,31; 10,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -1,46</t>
+          <t>-10,92; -2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 15,23</t>
+          <t>3,36; 15,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 1,92</t>
+          <t>-8,7; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -11,01</t>
+          <t>-20,7; -11,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,52</t>
+          <t>4,63; 12,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,86</t>
+          <t>-2,95; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -7,91</t>
+          <t>-14,53; -7,69</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 68,28</t>
+          <t>9,45; 66,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 60,75</t>
+          <t>0,15; 54,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,85; -6,67</t>
+          <t>-45,51; -10,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 50,46</t>
+          <t>8,87; 48,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 6,81</t>
+          <t>-24,59; 6,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -34,87</t>
+          <t>-56,82; -34,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 48,04</t>
+          <t>16,16; 48,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 18,52</t>
+          <t>-9,73; 17,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -30,34</t>
+          <t>-48,98; -29,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,62</t>
+          <t>3,98; 12,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,86</t>
+          <t>-1,25; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -2,11</t>
+          <t>-10,5; -2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,83</t>
+          <t>7,87; 16,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,76</t>
+          <t>0,48; 8,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -4,63</t>
+          <t>-12,28; -4,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,74</t>
+          <t>7,43; 13,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,52</t>
+          <t>0,81; 6,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -4,46</t>
+          <t>-10,45; -4,86</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 62,53</t>
+          <t>16,6; 64,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 33,67</t>
+          <t>-5,0; 35,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -10,9</t>
+          <t>-44,65; -11,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,58; 56,97</t>
+          <t>22,57; 55,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 29,04</t>
+          <t>1,38; 28,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,43; -15,59</t>
+          <t>-35,4; -15,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,0; 53,36</t>
+          <t>25,86; 52,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 26,0</t>
+          <t>2,61; 25,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,72; -17,51</t>
+          <t>-36,69; -18,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 14,76</t>
+          <t>4,86; 14,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 9,06</t>
+          <t>-0,47; 8,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -2,28</t>
+          <t>-11,51; -2,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,1; 21,21</t>
+          <t>10,87; 21,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,96</t>
+          <t>0,66; 10,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 23,55</t>
+          <t>-13,52; 24,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,4</t>
+          <t>9,57; 16,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,27</t>
+          <t>1,55; 8,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 13,87</t>
+          <t>-10,79; 15,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,73; 82,58</t>
+          <t>21,52; 80,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 53,23</t>
+          <t>-2,18; 50,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,75; -12,64</t>
+          <t>-52,1; -14,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,92; 79,88</t>
+          <t>33,57; 78,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,17; 41,18</t>
+          <t>2,06; 40,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 89,92</t>
+          <t>-44,85; 93,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,28; 71,78</t>
+          <t>36,48; 74,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 36,16</t>
+          <t>6,13; 36,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 56,08</t>
+          <t>-42,52; 65,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,88</t>
+          <t>5,38; 12,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,92</t>
+          <t>-1,06; 5,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,84</t>
+          <t>-9,95; -3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,83; 15,13</t>
+          <t>6,96; 15,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 6,21</t>
+          <t>-2,0; 6,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,16; -10,48</t>
+          <t>-17,64; -10,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,17</t>
+          <t>7,05; 12,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,15</t>
+          <t>-0,53; 4,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -8,05</t>
+          <t>-13,12; -8,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>24,49; 75,38</t>
+          <t>26,26; 74,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 34,39</t>
+          <t>-5,08; 34,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -21,02</t>
+          <t>-48,85; -19,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,05; 58,6</t>
+          <t>23,54; 58,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 23,61</t>
+          <t>-6,69; 23,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,87; -40,66</t>
+          <t>-58,67; -40,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>29,11; 59,28</t>
+          <t>28,59; 58,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 23,37</t>
+          <t>-1,63; 21,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,59; -36,35</t>
+          <t>-51,88; -35,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,1</t>
+          <t>7,0; 11,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,86</t>
+          <t>1,54; 5,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -4,61</t>
+          <t>-8,57; -4,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,82</t>
+          <t>10,38; 15,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,13</t>
+          <t>0,63; 5,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -0,49</t>
+          <t>-13,07; -0,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,54</t>
+          <t>9,31; 12,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,9</t>
+          <t>1,78; 4,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -3,5</t>
+          <t>-10,09; -3,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>32,74; 57,96</t>
+          <t>32,97; 57,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8,48; 30,83</t>
+          <t>7,12; 29,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -24,32</t>
+          <t>-40,87; -24,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,19; 50,37</t>
+          <t>32,74; 51,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,35; 17,55</t>
+          <t>1,73; 18,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -1,18</t>
+          <t>-42,37; -0,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>36,0; 51,17</t>
+          <t>35,77; 50,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,75; 19,83</t>
+          <t>6,84; 19,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -12,87</t>
+          <t>-39,11; -13,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,94</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 30,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 19,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 24,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 13,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -2,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-49,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 248,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 174,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 14,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 150,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 99,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -19,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,9; 157,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 86,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,75; -15,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 15,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; -11,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -7,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 66,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 54,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,51; -10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 48,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; -34,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 48,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 17,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -29,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 16,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -4,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -4,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-27,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,6; 64,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 35,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,65; -11,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,57; 55,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 28,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,4; -15,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,86; 52,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 25,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -18,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 14,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -2,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 21,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 24,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,52; 80,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 50,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,1; -14,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,57; 78,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 40,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 93,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,48; 74,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 36,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 65,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-13,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -3,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,96; 15,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -10,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -8,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-37,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-44,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>26,26; 74,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 34,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,85; -19,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,54; 58,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 23,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -40,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,59; 58,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 21,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -35,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>32,97; 57,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,12; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -24,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,74; 51,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,73; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,77; 50,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,84; 19,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -13,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,21; 15,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 16,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,88; -22,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 18,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 5,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,91; -30,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,92; 15,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 8,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,41; -28,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,48%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 49,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,49; 49,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,62; -67,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 43,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; 13,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,11; -71,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,77; 39,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 21,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,72; -71,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,23; 17,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 14,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,75; -24,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,34; 19,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 12,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,61; -27,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,58; 16,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 11,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,45; -28,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,07%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,14; 49,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 40,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,39; -69,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,53; 42,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 26,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,21; -59,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,13; 41,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,88; 27,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,3; -67,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 21,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 16,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,85; -24,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,72; 29,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,53; 17,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,0; 22,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,96; 24,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,71; 15,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,21; 4,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,07%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,19; 67,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 50,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,62; -74,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,53; 74,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,29; 42,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,56; 55,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,8; 64,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 41,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,17; 11,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,36; 19,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 8,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,86; -26,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,72; 19,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 9,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,54; -32,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,75; 17,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 7,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,6; -30,81</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,86%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,58; 55,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 25,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,73; -74,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,17; 46,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 22,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,18; -76,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,64; 44,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 18,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,75; -77,81</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,5; 15,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 10,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,95; -26,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,7; 18,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 8,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,04; -15,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,99; 16,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 8,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,73; -20,99</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,56%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,1; 44,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,56; 28,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,43; -75,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,82; 41,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 18,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,25; -33,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,87; 39,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,74; 20,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,58; -50,38</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 15,9</t>
+          <t>2,61; 16,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,3</t>
+          <t>2,38; 16,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,88; -22,29</t>
+          <t>-32,65; -21,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,76</t>
+          <t>5,96; 18,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,73</t>
+          <t>-7,05; 5,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,91; -30,92</t>
+          <t>-41,66; -30,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,56</t>
+          <t>6,38; 15,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,4</t>
+          <t>-1,04; 8,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -28,46</t>
+          <t>-35,42; -28,06</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 49,21</t>
+          <t>6,84; 50,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 49,34</t>
+          <t>5,66; 51,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,62; -67,61</t>
+          <t>-82,41; -67,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 43,34</t>
+          <t>11,7; 43,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 13,59</t>
+          <t>-14,2; 12,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,11; -71,12</t>
+          <t>-82,83; -71,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 39,68</t>
+          <t>14,23; 39,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 21,42</t>
+          <t>-2,27; 21,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,72; -71,98</t>
+          <t>-80,7; -71,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,15</t>
+          <t>6,27; 17,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 14,21</t>
+          <t>2,04; 13,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -24,85</t>
+          <t>-35,24; -24,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 19,44</t>
+          <t>8,3; 18,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 12,1</t>
+          <t>1,16; 12,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,61; -27,36</t>
+          <t>-36,47; -27,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,85</t>
+          <t>8,65; 16,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 11,53</t>
+          <t>3,49; 11,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,45; -28,0</t>
+          <t>-35,91; -27,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 49,85</t>
+          <t>15,41; 53,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 40,91</t>
+          <t>5,07; 40,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,39; -69,54</t>
+          <t>-88,86; -69,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 42,25</t>
+          <t>15,94; 40,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 26,04</t>
+          <t>2,16; 26,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,21; -59,73</t>
+          <t>-70,53; -60,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 41,39</t>
+          <t>19,01; 39,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 27,82</t>
+          <t>7,84; 27,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,3; -67,02</t>
+          <t>-81,08; -67,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 21,97</t>
+          <t>8,03; 22,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 16,47</t>
+          <t>2,94; 16,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,85; -24,8</t>
+          <t>-36,05; -25,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 29,95</t>
+          <t>17,12; 30,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 17,32</t>
+          <t>4,46; 17,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 22,13</t>
+          <t>-34,46; 18,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,32</t>
+          <t>15,63; 24,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 15,66</t>
+          <t>5,69; 15,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 4,5</t>
+          <t>-32,29; 4,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,19; 67,85</t>
+          <t>20,47; 70,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 50,0</t>
+          <t>7,46; 50,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,62; -74,68</t>
+          <t>-87,78; -74,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,53; 74,98</t>
+          <t>36,48; 75,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 42,43</t>
+          <t>9,67; 42,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,56; 55,82</t>
+          <t>-77,17; 45,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,8; 64,53</t>
+          <t>36,45; 65,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 41,22</t>
+          <t>12,86; 39,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,17; 11,18</t>
+          <t>-79,46; 10,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 19,25</t>
+          <t>6,72; 18,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 8,92</t>
+          <t>-2,96; 8,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-34,86; -26,03</t>
+          <t>-35,14; -25,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 19,34</t>
+          <t>9,02; 19,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 9,22</t>
+          <t>-1,71; 9,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,54; -32,21</t>
+          <t>-40,34; -31,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 17,62</t>
+          <t>9,68; 17,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 7,11</t>
+          <t>-1,17; 7,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-36,6; -30,81</t>
+          <t>-36,79; -30,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,58; 55,42</t>
+          <t>16,09; 55,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 25,64</t>
+          <t>-7,55; 24,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,73; -74,69</t>
+          <t>-84,75; -74,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,17; 46,28</t>
+          <t>19,2; 47,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 22,18</t>
+          <t>-3,43; 22,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,18; -76,99</t>
+          <t>-85,43; -77,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,64; 44,67</t>
+          <t>21,73; 44,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 18,05</t>
+          <t>-2,72; 18,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,75; -77,81</t>
+          <t>-83,82; -77,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,6</t>
+          <t>9,57; 15,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,17</t>
+          <t>4,02; 10,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-31,95; -26,82</t>
+          <t>-32,18; -26,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,32</t>
+          <t>12,93; 18,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,27</t>
+          <t>2,14; 8,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-35,04; -15,4</t>
+          <t>-35,15; -13,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,21</t>
+          <t>11,69; 16,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,5</t>
+          <t>4,21; 8,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -20,99</t>
+          <t>-32,69; -19,94</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,1; 44,59</t>
+          <t>24,91; 43,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,91</t>
+          <t>10,66; 29,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,43; -75,52</t>
+          <t>-83,52; -75,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,82; 41,64</t>
+          <t>27,3; 42,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,58</t>
+          <t>4,33; 17,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,25; -33,39</t>
+          <t>-75,41; -29,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,87; 39,88</t>
+          <t>27,07; 40,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,92</t>
+          <t>9,75; 21,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,58; -50,38</t>
+          <t>-77,62; -48,08</t>
         </is>
       </c>
     </row>
